--- a/data/trans_dic/P78C2_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P78C2_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>36,73%</t>
+          <t>28,57%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>44,6%</t>
+          <t>36,3%</t>
         </is>
       </c>
     </row>
@@ -584,19 +584,19 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,06; 67,26</t>
+          <t>5,46; 57,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,88; 72,16</t>
+          <t>8,7; 64,3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>74,19%</t>
+          <t>71,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>99,0%</t>
+          <t>98,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88,43%</t>
+          <t>86,5%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>28,53; 100,0</t>
+          <t>25,36; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>93,49; 100,0</t>
+          <t>92,37; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>63,66; 99,39</t>
+          <t>59,14; 99,26</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>68,65%</t>
+          <t>67,9%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>68,66%</t>
+          <t>67,48%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>68,65%</t>
+          <t>67,74%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>43,96; 87,26</t>
+          <t>43,78; 86,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>40,64; 87,1</t>
+          <t>40,47; 86,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,01; 83,78</t>
+          <t>51,18; 83,03</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>91,04%</t>
+          <t>90,29%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>58,73%</t>
+          <t>58,05%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>74,46%</t>
+          <t>73,37%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>59,72; 100,0</t>
+          <t>57,22; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,42; 79,89</t>
+          <t>35,22; 78,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>54,64; 88,29</t>
+          <t>53,65; 87,82</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>81,63%</t>
+          <t>80,91%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>73,48%</t>
+          <t>73,63%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>76,06%</t>
+          <t>76,03%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>28,56; 100,0</t>
+          <t>28,27; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>31,01; 96,99</t>
+          <t>31,9; 96,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45,34; 91,83</t>
+          <t>45,83; 91,35</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>47,2%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>91,87%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>80,17%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>55,22; 100,0</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>35,69; 100,0</t>
+          <t>76,75; 100</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>76,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>66,58%</t>
+          <t>83,25%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>70,69%</t>
+          <t>59,93%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>61,33; 87,38</t>
+          <t>0; 77,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>52,95; 77,58</t>
+          <t>25,11; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>58,58; 78,68</t>
+          <t>14,16; 100,0</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>74,92%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>62,61%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>67,76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>59,12; 86,65</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>46,81; 75,1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>53,7; 76,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
